--- a/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
+++ b/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baode\Desktop\ATuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20_Project\ATuan\branch_20180322\TaskList\TaskList\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TaskList!$A$1:$J$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TaskList!$A$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,16 +28,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>DANH SÁCH CÔNG VIỆC NĂM 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Person Plan</t>
+  </si>
+  <si>
+    <t>Start Date Plan</t>
+  </si>
+  <si>
+    <t>Finish Date Plan</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Date Must Finish</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>02-03-2018</t>
+  </si>
+  <si>
+    <t>DANH SÁCH CÔNG VIỆC CẦN THỰC HIỆN</t>
+  </si>
+  <si>
+    <t>Date create :</t>
+  </si>
+  <si>
+    <t>Delay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +98,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,8 +127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,13 +142,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -90,8 +185,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEC6C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEC6C6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -366,51 +474,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G5"/>
+  <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="53.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:14" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="7" spans="2:14" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="B3:N3"/>
   </mergeCells>
+  <conditionalFormatting sqref="M8:M29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="delay">
+      <formula>NOT(ISERROR(SEARCH("delay",M8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
+++ b/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
@@ -27,6 +27,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bao nguyen</author>
+  </authors>
+  <commentList>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Status:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+doing
+done</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
@@ -82,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +147,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -473,10 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -905,6 +955,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
+++ b/TaskList/TaskList/bin/Debug/TaskList_template.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskList!$B$7:$N$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TaskList!$A$1:$O$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -525,7 +526,7 @@
   <dimension ref="B3:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,6 +946,7 @@
       <c r="N29" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B7:N7"/>
   <mergeCells count="1">
     <mergeCell ref="B3:N3"/>
   </mergeCells>
